--- a/codelists/LABA_SNOMED.xlsx
+++ b/codelists/LABA_SNOMED.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:A90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,23 +360,13 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>VPID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>APID</t>
+          <t>Medcode</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>12626211000001108</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
           <t>3206811000001109</t>
         </is>
       </c>
@@ -384,11 +374,6 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>12626211000001108</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
           <t>14239811000001105</t>
         </is>
       </c>
@@ -396,11 +381,6 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12626211000001108</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
           <t>16545911000001103</t>
         </is>
       </c>
@@ -408,11 +388,6 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>12626211000001108</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
           <t>16581611000001101</t>
         </is>
       </c>
@@ -420,11 +395,6 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>12626211000001108</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
           <t>18058411000001109</t>
         </is>
       </c>
@@ -432,11 +402,6 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>12626211000001108</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
           <t>21866011000001104</t>
         </is>
       </c>
@@ -444,11 +409,6 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>12626211000001108</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
           <t>37574711000001102</t>
         </is>
       </c>
@@ -456,11 +416,6 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>39113011000001109</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
           <t>3245011000001103</t>
         </is>
       </c>
@@ -468,11 +423,6 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>39113011000001109</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
           <t>5271811000001100</t>
         </is>
       </c>
@@ -480,11 +430,6 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>39113011000001109</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
           <t>5307111000001103</t>
         </is>
       </c>
@@ -492,11 +437,6 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>39113011000001109</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
           <t>11176411000001106</t>
         </is>
       </c>
@@ -504,11 +444,6 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>39113011000001109</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
           <t>13944011000001100</t>
         </is>
       </c>
@@ -516,11 +451,6 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>39113011000001109</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
           <t>14705611000001109</t>
         </is>
       </c>
@@ -528,11 +458,6 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>39113011000001109</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
           <t>16219411000001105</t>
         </is>
       </c>
@@ -540,11 +465,6 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>39113011000001109</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
           <t>16585911000001109</t>
         </is>
       </c>
@@ -552,11 +472,6 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>39113011000001109</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
           <t>17344611000001106</t>
         </is>
       </c>
@@ -564,11 +479,6 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>39113011000001109</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
           <t>17616911000001109</t>
         </is>
       </c>
@@ -576,11 +486,6 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>39113011000001109</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
           <t>37575111000001104</t>
         </is>
       </c>
@@ -588,11 +493,6 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>9652711000001107</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
           <t>9628711000001106</t>
         </is>
       </c>
@@ -600,11 +500,6 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>9652711000001107</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
           <t>30041511000001100</t>
         </is>
       </c>
@@ -612,11 +507,6 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>9652711000001107</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
           <t>37715611000001101</t>
         </is>
       </c>
@@ -624,11 +514,6 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>39112911000001101</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
           <t>3243511000001107</t>
         </is>
       </c>
@@ -636,11 +521,6 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>39112911000001101</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
           <t>5272211000001108</t>
         </is>
       </c>
@@ -648,11 +528,6 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>39112911000001101</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
           <t>5307711000001102</t>
         </is>
       </c>
@@ -660,11 +535,6 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>39112911000001101</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
           <t>13943811000001108</t>
         </is>
       </c>
@@ -672,11 +542,6 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>39112911000001101</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
           <t>14706311000001109</t>
         </is>
       </c>
@@ -684,11 +549,6 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>39112911000001101</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
           <t>16219211000001106</t>
         </is>
       </c>
@@ -696,11 +556,6 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>39112911000001101</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
           <t>17344411000001108</t>
         </is>
       </c>
@@ -708,11 +563,6 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>39112911000001101</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
           <t>17616311000001108</t>
         </is>
       </c>
@@ -720,11 +570,6 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>39112911000001101</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
           <t>37443811000001100</t>
         </is>
       </c>
@@ -732,11 +577,6 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>17313711000001107</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
           <t>17300811000001109</t>
         </is>
       </c>
@@ -744,11 +584,6 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>17313711000001107</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
           <t>18488911000001103</t>
         </is>
       </c>
@@ -756,11 +591,6 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>17313711000001107</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
           <t>37526111000001109</t>
         </is>
       </c>
@@ -768,11 +598,6 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>17313711000001107</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
           <t>37549211000001109</t>
         </is>
       </c>
@@ -780,11 +605,6 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>17313711000001107</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
           <t>38157111000001106</t>
         </is>
       </c>
@@ -792,11 +612,6 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>17313811000001104</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
           <t>17299911000001102</t>
         </is>
       </c>
@@ -804,11 +619,6 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>17313811000001104</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
           <t>18489111000001108</t>
         </is>
       </c>
@@ -816,11 +626,6 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>17313811000001104</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
           <t>37526611000001101</t>
         </is>
       </c>
@@ -828,11 +633,6 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>17313811000001104</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
           <t>38157311000001108</t>
         </is>
       </c>
@@ -840,11 +640,6 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>37692311000001106</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
           <t>37678311000001100</t>
         </is>
       </c>
@@ -852,11 +647,6 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>24670111000001108</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
           <t>24608011000001103</t>
         </is>
       </c>
@@ -864,11 +654,6 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>39110811000001105</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
           <t>408911000001105</t>
         </is>
       </c>
@@ -876,11 +661,6 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>39110811000001105</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
           <t>5275011000001108</t>
         </is>
       </c>
@@ -888,11 +668,6 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>39110811000001105</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
           <t>5275311000001106</t>
         </is>
       </c>
@@ -900,11 +675,6 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>39110811000001105</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
           <t>5315611000001101</t>
         </is>
       </c>
@@ -912,11 +682,6 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>39110811000001105</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
           <t>5320411000001102</t>
         </is>
       </c>
@@ -924,11 +689,6 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>10075611000001101</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
           <t>10073011000001107</t>
         </is>
       </c>
@@ -936,11 +696,6 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>10075611000001101</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
           <t>10847711000001102</t>
         </is>
       </c>
@@ -948,11 +703,6 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>10075611000001101</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
           <t>13203711000001107</t>
         </is>
       </c>
@@ -960,11 +710,6 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>10075611000001101</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
           <t>14706211000001101</t>
         </is>
       </c>
@@ -972,11 +717,6 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>10075611000001101</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
           <t>16241711000001109</t>
         </is>
       </c>
@@ -984,11 +724,6 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>10075611000001101</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
           <t>17441311000001105</t>
         </is>
       </c>
@@ -996,11 +731,6 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>10075611000001101</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
           <t>18186311000001104</t>
         </is>
       </c>
@@ -1008,11 +738,6 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>10075611000001101</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
           <t>18611611000001101</t>
         </is>
       </c>
@@ -1020,11 +745,6 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>10075611000001101</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
           <t>19562111000001107</t>
         </is>
       </c>
@@ -1032,11 +752,6 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>10075611000001101</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
           <t>19568411000001100</t>
         </is>
       </c>
@@ -1044,11 +759,6 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>10075611000001101</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
           <t>22650111000001100</t>
         </is>
       </c>
@@ -1056,11 +766,6 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>10075611000001101</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
           <t>33561211000001109</t>
         </is>
       </c>
@@ -1068,11 +773,6 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>10075611000001101</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
           <t>42266511000001101</t>
         </is>
       </c>
@@ -1080,11 +780,6 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>10075611000001101</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
           <t>42342411000001101</t>
         </is>
       </c>
@@ -1092,11 +787,6 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>35938011000001101</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
           <t>3082411000001100</t>
         </is>
       </c>
@@ -1104,11 +794,6 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>35938011000001101</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
           <t>5321611000001109</t>
         </is>
       </c>
@@ -1116,11 +801,6 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>35937811000001108</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
           <t>3084011000001103</t>
         </is>
       </c>
@@ -1128,11 +808,6 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>35937811000001108</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
           <t>5321111000001101</t>
         </is>
       </c>
@@ -1140,11 +815,6 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>35937811000001108</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
           <t>5323811000001107</t>
         </is>
       </c>
@@ -1152,11 +822,6 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>39113211000001104</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
           <t>3380111000001107</t>
         </is>
       </c>
@@ -1164,11 +829,6 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>39113211000001104</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
           <t>5276511000001107</t>
         </is>
       </c>
@@ -1176,11 +836,6 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>39113211000001104</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
           <t>5320611000001104</t>
         </is>
       </c>
@@ -1188,11 +843,6 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>39113211000001104</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
           <t>13997811000001107</t>
         </is>
       </c>
@@ -1200,11 +850,6 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>39113211000001104</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
           <t>14706011000001106</t>
         </is>
       </c>
@@ -1212,11 +857,6 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>39113211000001104</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
           <t>16241911000001106</t>
         </is>
       </c>
@@ -1224,11 +864,6 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>39113211000001104</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
           <t>17441111000001108</t>
         </is>
       </c>
@@ -1236,11 +871,6 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>39113211000001104</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
           <t>18186011000001102</t>
         </is>
       </c>
@@ -1248,11 +878,6 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>39113211000001104</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
           <t>36895211000001101</t>
         </is>
       </c>
@@ -1260,11 +885,6 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>39113211000001104</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
           <t>37415511000001109</t>
         </is>
       </c>
@@ -1272,12 +892,98 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
+          <t>37702811000001107</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>12626211000001108</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>39113011000001109</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>9652711000001107</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>39112911000001101</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>17313711000001107</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>17313811000001104</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>37692311000001106</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>24670111000001108</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>39110811000001105</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>10075611000001101</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>35938011000001101</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>35937811000001108</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
           <t>39113211000001104</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>37702811000001107</t>
         </is>
       </c>
     </row>
